--- a/mrrj-pro-enterprise/mrrj-pro-enterprise/testdata/数据设置/部门管理(基础数据).xlsx
+++ b/mrrj-pro-enterprise/mrrj-pro-enterprise/testdata/数据设置/部门管理(基础数据).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15240"/>
+    <workbookView windowWidth="23085" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="新增" sheetId="1" r:id="rId1"/>
@@ -319,10 +319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -350,13 +350,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -371,7 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,53 +379,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +397,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,16 +424,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,13 +486,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,25 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,114 +660,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,24 +667,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,15 +677,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,6 +691,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +760,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -744,186 +777,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -952,60 +952,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1305,11 +1305,11 @@
   <sheetPr/>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
@@ -1317,18 +1317,19 @@
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="29.125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="17.75" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="58.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="17.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.8269230769231" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.825" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="84" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="135" spans="1:19">
+    <row r="2" s="3" customFormat="1" ht="54" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="135" spans="1:19">
+    <row r="3" s="3" customFormat="1" ht="54" spans="1:19">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="135" spans="1:19">
+    <row r="4" s="3" customFormat="1" ht="54" spans="1:19">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1585,7 +1586,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="19.75" style="3" customWidth="1"/>
@@ -1600,7 +1601,7 @@
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="84" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="54" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="101" spans="1:19">
+    <row r="2" s="3" customFormat="1" ht="54" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="118" spans="1:19">
+    <row r="3" s="4" customFormat="1" ht="81" spans="1:19">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1797,7 +1798,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
@@ -1809,7 +1810,7 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="84" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="54" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="219" spans="1:19">
+    <row r="2" s="3" customFormat="1" ht="135" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="219" spans="1:19">
+    <row r="3" s="4" customFormat="1" ht="135" spans="1:19">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2006,7 +2007,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
@@ -2020,7 +2021,7 @@
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="84" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="54" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="101" spans="1:19">
+    <row r="4" s="3" customFormat="1" ht="67.5" spans="1:19">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="101" spans="1:19">
+    <row r="5" s="4" customFormat="1" ht="67.5" spans="1:19">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2336,7 +2337,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2352,7 +2353,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
